--- a/data/raw_data_before_2020/2013/permits-issued-by-county-2013.xlsx
+++ b/data/raw_data_before_2020/2013/permits-issued-by-county-2013.xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data_before_2020\2013\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CB9269-8499-4AAA-AF21-10808B91A275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="132" windowWidth="15300" windowHeight="8736"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$32</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Year</t>
   </si>
@@ -125,12 +145,18 @@
   </si>
   <si>
     <t>Wicklow</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -309,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -323,6 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,6 +359,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -380,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,9 +443,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,6 +495,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -623,20 +687,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,8 +722,11 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2013</v>
       </c>
@@ -680,7 +747,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>7</v>
@@ -701,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
@@ -722,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>9</v>
@@ -743,7 +810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>10</v>
@@ -764,7 +831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>11</v>
@@ -785,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
@@ -806,7 +873,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
@@ -827,7 +894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>14</v>
@@ -847,8 +914,11 @@
       <c r="G10" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
         <v>15</v>
@@ -868,8 +938,11 @@
       <c r="G11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
         <v>16</v>
@@ -890,7 +963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
         <v>17</v>
@@ -911,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
         <v>18</v>
@@ -932,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>19</v>
@@ -953,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
         <v>20</v>
@@ -974,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>21</v>
@@ -995,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
         <v>22</v>
@@ -1016,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
         <v>23</v>
@@ -1037,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
         <v>24</v>
@@ -1058,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
         <v>25</v>
@@ -1079,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
         <v>26</v>
@@ -1100,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
         <v>27</v>
@@ -1121,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
         <v>28</v>
@@ -1142,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
         <v>29</v>
@@ -1163,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
         <v>30</v>
@@ -1184,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
         <v>31</v>
@@ -1204,8 +1277,11 @@
       <c r="G27" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8" t="s">
         <v>32</v>
@@ -1225,8 +1301,11 @@
       <c r="G28" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
         <v>33</v>
@@ -1247,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
         <v>34</v>
@@ -1268,7 +1347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
         <v>35</v>
@@ -1289,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="s">
         <v>36</v>
@@ -1311,6 +1390,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H32" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>